--- a/ATM_TEMP.xlsx
+++ b/ATM_TEMP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chanda.debmallya/Desktop/GAMS DICE 2023/DICE 2023 Carbon Budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7270D753-F0F8-D641-8F98-6BBA6862E9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A849587A-C6A6-F646-8531-26E0DD9AB624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="2320" windowWidth="26960" windowHeight="15940" activeTab="2" xr2:uid="{EBB229AA-6E53-C147-81AA-FD7B10BACEF3}"/>
+    <workbookView xWindow="2240" yWindow="2320" windowWidth="26960" windowHeight="15940" xr2:uid="{EBB229AA-6E53-C147-81AA-FD7B10BACEF3}"/>
   </bookViews>
   <sheets>
     <sheet name="R 1" sheetId="1" r:id="rId1"/>
@@ -122,6 +122,82 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Atmospheric Temperature (C, prein) at R = 1%</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -134,13 +210,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -776,6 +866,82 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Atmospheric Temperature (C, prein) Baseline Scenario </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -788,13 +954,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1430,6 +1610,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t> Atmospheric</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Temperature (C, prein) Optimal Scenario </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3823,16 +4033,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>692150</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4179,7 +4389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCE9D8F-4922-C34D-8AA5-D7853DD4FBC4}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A26"/>
     </sheetView>
   </sheetViews>
@@ -4783,8 +4993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E5B419-578E-F54A-AC1B-6322F5E09153}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
